--- a/BackTest/2019-10-29 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-29 BackTest LAMB.xlsx
@@ -1851,20 +1851,14 @@
         <v>39.59500000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>39.6</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1892,20 +1886,14 @@
         <v>39.565</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>39.4</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1933,20 +1921,14 @@
         <v>39.55</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>39.6</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1980,14 +1962,12 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>39.6</v>
+      </c>
+      <c r="K45" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2015,18 +1995,18 @@
         <v>39.51500000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -2064,10 +2044,12 @@
       <c r="J47" t="n">
         <v>39.5</v>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M47" t="n">
@@ -2097,20 +2079,14 @@
         <v>39.50500000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>39.6</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2146,12 +2122,10 @@
       <c r="J49" t="n">
         <v>39.6</v>
       </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2179,18 +2153,18 @@
         <v>39.50000000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -2220,15 +2194,15 @@
         <v>39.50000000000001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2261,15 +2235,15 @@
         <v>39.495</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2302,15 +2276,15 @@
         <v>39.51000000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
         <v>39.6</v>
       </c>
-      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2343,15 +2317,15 @@
         <v>39.51500000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
         <v>39.6</v>
       </c>
-      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2384,15 +2358,15 @@
         <v>39.51000000000001</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2425,15 +2399,15 @@
         <v>39.51500000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2466,15 +2440,15 @@
         <v>39.50000000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2507,15 +2481,15 @@
         <v>39.49</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2548,15 +2522,15 @@
         <v>39.48</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2589,15 +2563,15 @@
         <v>39.48</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2630,15 +2604,15 @@
         <v>39.475</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2671,15 +2645,15 @@
         <v>39.465</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2712,15 +2686,15 @@
         <v>39.45999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2753,15 +2727,15 @@
         <v>39.44</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2794,15 +2768,15 @@
         <v>39.425</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2835,15 +2809,15 @@
         <v>39.405</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2876,15 +2850,15 @@
         <v>39.395</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2917,15 +2891,15 @@
         <v>39.39</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2958,15 +2932,15 @@
         <v>39.385</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2999,15 +2973,15 @@
         <v>39.37499999999999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3040,15 +3014,15 @@
         <v>39.38</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3081,15 +3055,15 @@
         <v>39.38</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3122,15 +3096,15 @@
         <v>39.385</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3163,15 +3137,15 @@
         <v>39.395</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3204,15 +3178,15 @@
         <v>39.40999999999999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3245,15 +3219,15 @@
         <v>39.42499999999999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3286,15 +3260,15 @@
         <v>39.43999999999999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
         <v>39.6</v>
       </c>
-      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3327,15 +3301,15 @@
         <v>39.46499999999999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3368,15 +3342,15 @@
         <v>39.48999999999999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3409,15 +3383,15 @@
         <v>39.51499999999999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3450,15 +3424,15 @@
         <v>39.53499999999999</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3491,15 +3465,15 @@
         <v>39.54499999999999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
         <v>39.6</v>
       </c>
-      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3538,7 +3512,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3571,15 +3547,15 @@
         <v>39.58999999999999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
         <v>39.6</v>
       </c>
-      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3618,7 +3594,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3651,15 +3629,15 @@
         <v>39.63499999999999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
         <v>39.6</v>
       </c>
-      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3692,15 +3670,15 @@
         <v>39.64999999999999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
         <v>39.6</v>
       </c>
-      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3733,15 +3711,15 @@
         <v>39.65499999999999</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
         <v>39.6</v>
       </c>
-      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3774,15 +3752,15 @@
         <v>39.66999999999999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3815,15 +3793,15 @@
         <v>39.69499999999999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3856,15 +3834,15 @@
         <v>39.70999999999999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3903,7 +3881,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3942,7 +3922,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3981,7 +3963,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4020,7 +4004,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4059,7 +4045,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,7 +4086,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4137,7 +4127,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4176,7 +4168,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4215,7 +4209,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4254,7 +4250,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4293,7 +4291,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4332,7 +4332,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4371,7 +4373,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4410,7 +4414,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4449,7 +4455,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4488,7 +4496,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4527,7 +4537,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4566,7 +4578,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4605,7 +4619,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4644,7 +4660,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4683,7 +4701,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4722,7 +4742,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4761,7 +4783,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4800,7 +4824,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4839,7 +4865,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4878,7 +4906,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4917,7 +4947,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4956,7 +4988,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4995,7 +5029,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5034,7 +5070,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5073,7 +5111,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5112,7 +5152,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5151,7 +5193,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5190,7 +5234,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5229,7 +5275,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5268,7 +5316,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5307,7 +5357,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5346,7 +5398,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5385,7 +5439,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5424,7 +5480,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5463,7 +5521,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5502,7 +5562,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5541,7 +5603,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5580,7 +5644,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5619,7 +5685,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5658,7 +5726,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5697,7 +5767,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5736,7 +5808,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5775,7 +5849,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5814,7 +5890,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5853,7 +5931,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5892,7 +5972,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5931,7 +6013,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5970,7 +6054,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6009,7 +6095,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6048,7 +6136,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6087,7 +6177,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6126,7 +6218,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6165,7 +6259,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6204,7 +6300,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6243,7 +6341,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6282,7 +6382,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6321,7 +6423,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6357,16 +6461,20 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>39.6</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6397,8 +6505,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6432,10 +6546,16 @@
         <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M157" t="n">
-        <v>1</v>
+        <v>1.048030303030303</v>
       </c>
     </row>
     <row r="158">
@@ -6464,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6499,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -11851,20 +11971,14 @@
         <v>39.705</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>39.2</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11892,20 +12006,14 @@
         <v>39.66</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>39.1</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11933,20 +12041,14 @@
         <v>39.63</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>39</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11980,14 +12082,12 @@
         <v>0</v>
       </c>
       <c r="J315" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="K315" t="n">
+        <v>39</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12021,12 +12121,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="K316" t="inlineStr"/>
+        <v>39.4</v>
+      </c>
+      <c r="K316" t="n">
+        <v>39</v>
+      </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M316" t="n">
@@ -12064,7 +12166,9 @@
       <c r="J317" t="n">
         <v>39</v>
       </c>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>39</v>
+      </c>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12103,9 +12207,11 @@
         <v>0</v>
       </c>
       <c r="J318" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="K318" t="inlineStr"/>
+        <v>39.2</v>
+      </c>
+      <c r="K318" t="n">
+        <v>39</v>
+      </c>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12146,7 +12252,9 @@
       <c r="J319" t="n">
         <v>39.2</v>
       </c>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>39</v>
+      </c>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12187,7 +12295,9 @@
       <c r="J320" t="n">
         <v>39.1</v>
       </c>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>39</v>
+      </c>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12228,7 +12338,9 @@
       <c r="J321" t="n">
         <v>39.5</v>
       </c>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>39</v>
+      </c>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12269,7 +12381,9 @@
       <c r="J322" t="n">
         <v>39.7</v>
       </c>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>39</v>
+      </c>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12302,15 +12416,15 @@
         <v>39.34500000000001</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>39</v>
+      </c>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12343,15 +12457,15 @@
         <v>39.35000000000001</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>39</v>
+      </c>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12384,15 +12498,15 @@
         <v>39.35500000000001</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>40</v>
-      </c>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>39</v>
+      </c>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12431,7 +12545,9 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>39</v>
+      </c>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12470,7 +12586,9 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>39</v>
+      </c>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12509,7 +12627,9 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>39</v>
+      </c>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12548,7 +12668,9 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>39</v>
+      </c>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12587,7 +12709,9 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>39</v>
+      </c>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12626,7 +12750,9 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>39</v>
+      </c>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12665,7 +12791,9 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>39</v>
+      </c>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12704,7 +12832,9 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>39</v>
+      </c>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12743,7 +12873,9 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>39</v>
+      </c>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12782,7 +12914,9 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>39</v>
+      </c>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12821,7 +12955,9 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>39</v>
+      </c>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12860,7 +12996,9 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>39</v>
+      </c>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12899,7 +13037,9 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>39</v>
+      </c>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12938,7 +13078,9 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>39</v>
+      </c>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12977,7 +13119,9 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>39</v>
+      </c>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13016,7 +13160,9 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>39</v>
+      </c>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13055,7 +13201,9 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>39</v>
+      </c>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13094,7 +13242,9 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>39</v>
+      </c>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13133,7 +13283,9 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>39</v>
+      </c>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13172,7 +13324,9 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>39</v>
+      </c>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13211,7 +13365,9 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>39</v>
+      </c>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13250,7 +13406,9 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>39</v>
+      </c>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13289,7 +13447,9 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>39</v>
+      </c>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13328,7 +13488,9 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>39</v>
+      </c>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13367,7 +13529,9 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>39</v>
+      </c>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13406,7 +13570,9 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>39</v>
+      </c>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13445,7 +13611,9 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>39</v>
+      </c>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13484,7 +13652,9 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>39</v>
+      </c>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13523,7 +13693,9 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>39</v>
+      </c>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13562,7 +13734,9 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>39</v>
+      </c>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13601,7 +13775,9 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>39</v>
+      </c>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13640,7 +13816,9 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>39</v>
+      </c>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13679,7 +13857,9 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>39</v>
+      </c>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13718,7 +13898,9 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>39</v>
+      </c>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13757,7 +13939,9 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>39</v>
+      </c>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13796,7 +13980,9 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>39</v>
+      </c>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13835,7 +14021,9 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>39</v>
+      </c>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13874,7 +14062,9 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>39</v>
+      </c>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13913,7 +14103,9 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>39</v>
+      </c>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13952,7 +14144,9 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>39</v>
+      </c>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13991,7 +14185,9 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>39</v>
+      </c>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14030,7 +14226,9 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>39</v>
+      </c>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14069,7 +14267,9 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>39</v>
+      </c>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14108,7 +14308,9 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>39</v>
+      </c>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14147,7 +14349,9 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>39</v>
+      </c>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14186,7 +14390,9 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>39</v>
+      </c>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14225,7 +14431,9 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>39</v>
+      </c>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14264,7 +14472,9 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>39</v>
+      </c>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14303,7 +14513,9 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>39</v>
+      </c>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14342,7 +14554,9 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>39</v>
+      </c>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14381,7 +14595,9 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>39</v>
+      </c>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14420,7 +14636,9 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>39</v>
+      </c>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14459,7 +14677,9 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>39</v>
+      </c>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14498,7 +14718,9 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>39</v>
+      </c>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14537,7 +14759,9 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>39</v>
+      </c>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14576,7 +14800,9 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>39</v>
+      </c>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14615,7 +14841,9 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>39</v>
+      </c>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14654,7 +14882,9 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>39</v>
+      </c>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14693,7 +14923,9 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>39</v>
+      </c>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14732,7 +14964,9 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>39</v>
+      </c>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14771,7 +15005,9 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>39</v>
+      </c>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14810,7 +15046,9 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>39</v>
+      </c>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14849,7 +15087,9 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>39</v>
+      </c>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14888,7 +15128,9 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>39</v>
+      </c>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14927,7 +15169,9 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>39</v>
+      </c>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14966,7 +15210,9 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>39</v>
+      </c>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15005,7 +15251,9 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>39</v>
+      </c>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15044,7 +15292,9 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>39</v>
+      </c>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15083,7 +15333,9 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>39</v>
+      </c>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15122,7 +15374,9 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>39</v>
+      </c>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15161,7 +15415,9 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>39</v>
+      </c>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15200,7 +15456,9 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>39</v>
+      </c>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15239,7 +15497,9 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>39</v>
+      </c>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15278,7 +15538,9 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>39</v>
+      </c>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15317,7 +15579,9 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>39</v>
+      </c>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15356,7 +15620,9 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>39</v>
+      </c>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15395,7 +15661,9 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>39</v>
+      </c>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15434,7 +15702,9 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>39</v>
+      </c>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15473,7 +15743,9 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>39</v>
+      </c>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15512,7 +15784,9 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>39</v>
+      </c>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15551,7 +15825,9 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>39</v>
+      </c>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15590,7 +15866,9 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>39</v>
+      </c>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15629,7 +15907,9 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>39</v>
+      </c>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15668,7 +15948,9 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>39</v>
+      </c>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15707,7 +15989,9 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>39</v>
+      </c>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15746,7 +16030,9 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>39</v>
+      </c>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15785,7 +16071,9 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>39</v>
+      </c>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15824,7 +16112,9 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>39</v>
+      </c>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15863,7 +16153,9 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>39</v>
+      </c>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15899,16 +16191,20 @@
         <v>0</v>
       </c>
       <c r="I415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>39</v>
+      </c>
       <c r="L415" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M415" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M415" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -15936,11 +16232,17 @@
         <v>0</v>
       </c>
       <c r="I416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>39</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15971,11 +16273,17 @@
         <v>0</v>
       </c>
       <c r="I417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>39</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16009,8 +16317,14 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>39</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16044,8 +16358,14 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>39</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16079,8 +16399,14 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>39</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16114,8 +16440,14 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>39</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16149,8 +16481,14 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>39</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16184,8 +16522,14 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>39</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16219,8 +16563,14 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>39</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16254,8 +16604,14 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>39</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16289,8 +16645,14 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>39</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16324,8 +16686,14 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>39</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16359,8 +16727,14 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>39</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16394,8 +16768,14 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>39</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16429,8 +16809,14 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>39</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16464,8 +16850,14 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>39</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16499,8 +16891,14 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>39</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16534,8 +16932,14 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>39</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16569,8 +16973,14 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>39</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16604,8 +17014,14 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>39</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16639,8 +17055,14 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>39</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16674,8 +17096,14 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>39</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16709,8 +17137,14 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>39</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16744,8 +17178,14 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>39</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16779,8 +17219,14 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>39</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16814,8 +17260,14 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>39</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16849,8 +17301,14 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>39</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16884,8 +17342,14 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>39</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16919,8 +17383,14 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>39</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16954,8 +17424,14 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>39</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16989,8 +17465,14 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>39</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17024,8 +17506,14 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>39</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17059,8 +17547,14 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>39</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17094,8 +17588,14 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>39</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17129,8 +17629,14 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>39</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17164,8 +17670,14 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>39</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17199,8 +17711,14 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>39</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17234,8 +17752,14 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>39</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17269,8 +17793,14 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>39</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17304,8 +17834,14 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>39</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17339,8 +17875,14 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>39</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17374,8 +17916,14 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>39</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17409,8 +17957,14 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>39</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17444,10 +17998,16 @@
         <v>1</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>39</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M459" t="n">
-        <v>1</v>
+        <v>1.079615384615385</v>
       </c>
     </row>
     <row r="460">
@@ -17511,7 +18071,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-29 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>340437.5106051283</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>340937.5106051283</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>39.2</v>
@@ -521,7 +521,7 @@
         <v>200937.5106051283</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>39.5</v>
@@ -562,7 +562,7 @@
         <v>204725.8308051283</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>39.1</v>
@@ -603,7 +603,7 @@
         <v>204725.8308051283</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>39.5</v>
@@ -644,7 +644,7 @@
         <v>204725.8308051283</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>39.5</v>
@@ -685,7 +685,7 @@
         <v>204725.8308051283</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>39.5</v>
@@ -726,7 +726,7 @@
         <v>204725.8308051283</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>39.5</v>
@@ -767,7 +767,7 @@
         <v>204725.8308051283</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>39.5</v>
@@ -808,7 +808,7 @@
         <v>204725.8308051283</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>39.5</v>
@@ -849,9 +849,11 @@
         <v>356218.8308051283</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>39.5</v>
+      </c>
       <c r="J12" t="n">
         <v>39.2</v>
       </c>
@@ -888,7 +890,7 @@
         <v>356218.8308051283</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>39.7</v>
@@ -929,11 +931,9 @@
         <v>356218.8308051283</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>39.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>39.2</v>
       </c>
@@ -970,7 +970,7 @@
         <v>356218.8308051283</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>39.7</v>
@@ -1011,7 +1011,7 @@
         <v>696681.2809262869</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>39.7</v>
@@ -1208,11 +1208,9 @@
         <v>771355.0210474456</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>40.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>39.2</v>
       </c>
@@ -1249,11 +1247,9 @@
         <v>770355.5504474456</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>40.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>39.2</v>
       </c>
@@ -1290,11 +1286,9 @@
         <v>770978.5504474456</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>39.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>39.2</v>
       </c>
@@ -1331,11 +1325,9 @@
         <v>770978.5504474456</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>40.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>39.2</v>
       </c>
@@ -1372,11 +1364,9 @@
         <v>770978.5504474456</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>40.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>39.2</v>
       </c>
@@ -1413,11 +1403,9 @@
         <v>748396.0137474455</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>40.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>39.2</v>
       </c>
@@ -1454,11 +1442,9 @@
         <v>748406.1337474455</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>39.2</v>
       </c>
@@ -1495,11 +1481,9 @@
         <v>737431.0127474455</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>40.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>39.2</v>
       </c>
@@ -1926,11 +1910,9 @@
         <v>596887.5092474455</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>39.2</v>
       </c>
@@ -4580,11 +4562,9 @@
         <v>439615.1814663319</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>39.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
         <v>39.2</v>
       </c>
@@ -4855,11 +4835,9 @@
         <v>429117.0338663319</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
         <v>39.2</v>
       </c>
@@ -5793,11 +5771,9 @@
         <v>303479.2858663319</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
         <v>39.2</v>
       </c>
@@ -5834,11 +5810,9 @@
         <v>270070.1461663319</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
         <v>39.2</v>
       </c>
@@ -5875,11 +5849,9 @@
         <v>270262.156166332</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
         <v>39.2</v>
       </c>
@@ -5916,11 +5888,9 @@
         <v>188806.3812663319</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
         <v>39.2</v>
       </c>
@@ -5957,11 +5927,9 @@
         <v>205068.0897663319</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
         <v>39.2</v>
       </c>
@@ -5998,11 +5966,9 @@
         <v>203752.157966332</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
         <v>39.2</v>
       </c>
@@ -6039,11 +6005,9 @@
         <v>203752.157966332</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
         <v>39.2</v>
       </c>
@@ -6080,11 +6044,9 @@
         <v>203752.157966332</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>39.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
         <v>39.2</v>
       </c>
@@ -6121,7 +6083,7 @@
         <v>210055.559366332</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>39.6</v>
@@ -6162,7 +6124,7 @@
         <v>208389.183066332</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>39.8</v>
@@ -6203,7 +6165,7 @@
         <v>210006.5602663319</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>39.6</v>
@@ -6244,11 +6206,9 @@
         <v>210006.5602663319</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
         <v>39.2</v>
       </c>
@@ -6285,11 +6245,9 @@
         <v>210006.5602663319</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
         <v>39.2</v>
       </c>
@@ -6326,11 +6284,9 @@
         <v>210006.5602663319</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
         <v>39.2</v>
       </c>
@@ -6367,11 +6323,9 @@
         <v>210006.5602663319</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
         <v>39.2</v>
       </c>
@@ -6408,7 +6362,7 @@
         <v>211221.156135332</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>39.8</v>
@@ -6449,11 +6403,9 @@
         <v>210460.442535332</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
         <v>39.2</v>
       </c>
@@ -6490,7 +6442,7 @@
         <v>210460.442535332</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>39.8</v>
@@ -6531,7 +6483,7 @@
         <v>170460.442535332</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>39.8</v>
@@ -6572,7 +6524,7 @@
         <v>171460.442535332</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>39.6</v>
@@ -6613,7 +6565,7 @@
         <v>345469.948535332</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>39.7</v>
@@ -6654,7 +6606,7 @@
         <v>345469.948535332</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>40</v>
@@ -6695,7 +6647,7 @@
         <v>345469.948535332</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>40</v>
@@ -6736,11 +6688,9 @@
         <v>382589.984635332</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
         <v>39.2</v>
       </c>
@@ -7440,7 +7390,7 @@
         <v>909001.8224663321</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
@@ -7448,11 +7398,11 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1.040918367346939</v>
+        <v>1</v>
       </c>
       <c r="M179" t="inlineStr"/>
     </row>
@@ -7482,8 +7432,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7515,8 +7471,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7548,8 +7510,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7581,8 +7549,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7614,8 +7588,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7647,8 +7627,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7680,8 +7666,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7713,8 +7705,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7746,8 +7744,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7779,8 +7783,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7812,8 +7822,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7845,8 +7861,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7878,8 +7900,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7911,8 +7939,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7944,8 +7978,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7977,8 +8017,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8010,8 +8056,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8043,8 +8095,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8076,8 +8134,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8109,8 +8173,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8142,8 +8212,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8175,8 +8251,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8208,8 +8290,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8241,8 +8329,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8274,8 +8368,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8307,8 +8407,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8340,8 +8446,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8373,8 +8485,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8406,8 +8524,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8439,8 +8563,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8472,8 +8602,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8505,8 +8641,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8535,11 +8677,17 @@
         <v>1135276.454366332</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8568,11 +8716,17 @@
         <v>1269813.834714781</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8601,11 +8755,17 @@
         <v>1657526.164666332</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8634,11 +8794,17 @@
         <v>1657526.164666332</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8667,11 +8833,17 @@
         <v>1642467.538866332</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8700,11 +8872,17 @@
         <v>1515786.294966332</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8733,11 +8911,17 @@
         <v>1518057.007866332</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8766,11 +8950,17 @@
         <v>1552480.014480134</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8799,11 +8989,17 @@
         <v>1736508.010280134</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8832,11 +9028,17 @@
         <v>1733500.191780134</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8865,11 +9067,17 @@
         <v>1643835.641180134</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8898,11 +9106,17 @@
         <v>1644888.762380134</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8931,11 +9145,17 @@
         <v>1611109.672880134</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8964,11 +9184,17 @@
         <v>1431450.685880134</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8997,11 +9223,17 @@
         <v>1439143.063380134</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9033,8 +9265,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9063,13 +9301,19 @@
         <v>1368055.137247129</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L228" t="n">
-        <v>1</v>
+        <v>1.030714285714286</v>
       </c>
       <c r="M228" t="inlineStr"/>
     </row>
@@ -9525,7 +9769,7 @@
         <v>1083362.584906931</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9558,7 +9802,7 @@
         <v>1098776.584906931</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9591,7 +9835,7 @@
         <v>1066419.58250693</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9657,7 +9901,7 @@
         <v>1061000.267021692</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -10086,7 +10330,7 @@
         <v>763344.9122206609</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10119,7 +10363,7 @@
         <v>767444.9122206609</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10152,7 +10396,7 @@
         <v>767454.9122206609</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10185,7 +10429,7 @@
         <v>767464.9122206609</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10218,7 +10462,7 @@
         <v>769927.9664078531</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10251,7 +10495,7 @@
         <v>776610.3806123936</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10284,7 +10528,7 @@
         <v>774110.3806123936</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10317,7 +10561,7 @@
         <v>774110.3806123936</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10350,7 +10594,7 @@
         <v>783968.1688884905</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10449,7 +10693,7 @@
         <v>578859.8498884905</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10482,7 +10726,7 @@
         <v>578859.8498884905</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10515,7 +10759,7 @@
         <v>578869.8498884905</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10581,7 +10825,7 @@
         <v>684491.8889946634</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -13353,14 +13597,10 @@
         <v>897343.3405134449</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="J358" t="n">
-        <v>40.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
@@ -13393,14 +13633,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13432,14 +13666,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13501,14 +13729,10 @@
         <v>872154.4237134448</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="J362" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
@@ -13538,19 +13762,11 @@
         <v>872154.4237134448</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="J363" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13579,19 +13795,11 @@
         <v>683291.2048134449</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="J364" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13620,19 +13828,11 @@
         <v>556391.5383134448</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="J365" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13661,19 +13861,11 @@
         <v>556391.5383134448</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J366" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13702,19 +13894,11 @@
         <v>578178.5383134448</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J367" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13743,19 +13927,11 @@
         <v>577222.3513134448</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="J368" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13784,19 +13960,11 @@
         <v>569940.3512134448</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="J369" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13825,19 +13993,11 @@
         <v>569940.3512134448</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J370" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13866,19 +14026,11 @@
         <v>524704.8198134449</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J371" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13907,19 +14059,11 @@
         <v>524704.8198134449</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>39</v>
-      </c>
-      <c r="J372" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13951,14 +14095,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13987,19 +14125,15 @@
         <v>623627.1294134449</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>39</v>
       </c>
       <c r="J374" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14032,11 +14166,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L375" t="n">
@@ -14071,7 +14205,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -14110,7 +14244,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -14149,7 +14283,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -14188,7 +14322,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -14227,7 +14361,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -14266,7 +14400,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -14305,7 +14439,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -14344,7 +14478,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14383,7 +14517,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14418,11 +14552,11 @@
         <v>756720.4305134447</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14457,11 +14591,11 @@
         <v>756720.4305134447</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14500,7 +14634,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -14539,7 +14673,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14578,7 +14712,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14617,7 +14751,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14656,7 +14790,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14695,7 +14829,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14734,7 +14868,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14773,7 +14907,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14812,7 +14946,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14851,7 +14985,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14890,7 +15024,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14929,7 +15063,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14968,7 +15102,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -15007,7 +15141,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -15046,7 +15180,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -15085,7 +15219,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -15124,7 +15258,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -15163,7 +15297,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -15202,7 +15336,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -15241,7 +15375,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -15280,7 +15414,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -15319,7 +15453,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -15358,7 +15492,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15397,7 +15531,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15432,11 +15566,11 @@
         <v>648436.1794134447</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15475,7 +15609,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15514,7 +15648,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15553,7 +15687,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15592,7 +15726,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15631,7 +15765,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15670,7 +15804,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15705,11 +15839,11 @@
         <v>688716.7075134448</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15744,11 +15878,11 @@
         <v>686908.7075134448</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15787,7 +15921,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15826,7 +15960,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15865,7 +15999,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15904,7 +16038,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15939,13 +16073,11 @@
         <v>683005.2989134449</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
-      </c>
-      <c r="I424" t="n">
-        <v>40.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15984,7 +16116,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -16023,7 +16155,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -16062,7 +16194,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -16097,13 +16229,11 @@
         <v>610771.7051134448</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
-      </c>
-      <c r="I428" t="n">
-        <v>39.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -16142,7 +16272,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -16181,7 +16311,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -16220,7 +16350,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -16255,13 +16385,11 @@
         <v>612956.7222134449</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
-      </c>
-      <c r="I432" t="n">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -16300,7 +16428,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -16335,13 +16463,11 @@
         <v>634556.7222134449</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
-      </c>
-      <c r="I434" t="n">
-        <v>40.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -16380,7 +16506,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -16419,7 +16545,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16458,7 +16584,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16497,7 +16623,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16536,7 +16662,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16575,7 +16701,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16614,7 +16740,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16653,7 +16779,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16692,7 +16818,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16731,7 +16857,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16770,7 +16896,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16809,7 +16935,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16848,7 +16974,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16887,7 +17013,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16926,7 +17052,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16965,7 +17091,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -17004,7 +17130,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -17043,7 +17169,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -17082,7 +17208,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -17121,7 +17247,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -17160,7 +17286,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -17199,7 +17325,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -17238,7 +17364,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -17277,7 +17403,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -17316,7 +17442,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -17355,7 +17481,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -17394,7 +17520,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -17433,7 +17559,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17472,7 +17598,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17511,7 +17637,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17550,7 +17676,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17589,7 +17715,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17628,7 +17754,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17667,7 +17793,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17706,7 +17832,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -17745,7 +17871,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -17784,7 +17910,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -17823,7 +17949,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -17862,7 +17988,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -17901,7 +18027,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -17936,19 +18062,19 @@
         <v>686453.7662134449</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L475" t="n">
-        <v>1.030175879396985</v>
+        <v>1</v>
       </c>
       <c r="M475" t="inlineStr"/>
     </row>
@@ -17978,8 +18104,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>39</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18011,8 +18143,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>39</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18044,8 +18182,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>39</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18077,8 +18221,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>39</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18110,8 +18260,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>39</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18143,8 +18299,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>39</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18176,8 +18338,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>39</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18209,8 +18377,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>39</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18242,8 +18416,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>39</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18275,8 +18455,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>39</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18308,8 +18494,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>39</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18341,8 +18533,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>39</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18374,8 +18572,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>39</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18407,8 +18611,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>39</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18440,8 +18650,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>39</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18473,8 +18689,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>39</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18506,8 +18728,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>39</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18539,8 +18767,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>39</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18572,8 +18806,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>39</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18605,8 +18845,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>39</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18638,8 +18884,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>39</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18671,8 +18923,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>39</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18704,8 +18962,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>39</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18737,8 +19001,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>39</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18770,8 +19040,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>39</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18803,8 +19079,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>39</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18836,8 +19118,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>39</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18869,8 +19157,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>39</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18902,8 +19196,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>39</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18935,8 +19235,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>39</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18968,8 +19274,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>39</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19001,8 +19313,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>39</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19034,8 +19352,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>39</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19067,8 +19391,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>39</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19100,8 +19430,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>39</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19133,8 +19469,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>39</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19166,8 +19508,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>39</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19199,8 +19547,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>39</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19232,8 +19586,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>39</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19262,11 +19622,17 @@
         <v>750190.4374134449</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>39</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19295,11 +19661,17 @@
         <v>1037761.860713445</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>39</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19328,11 +19700,17 @@
         <v>898746.1659134449</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>39</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19361,11 +19739,17 @@
         <v>890740.1067134449</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>39</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19394,11 +19778,17 @@
         <v>890740.1067134449</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>39</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19427,11 +19817,17 @@
         <v>890740.1067134449</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>39</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19463,8 +19859,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>39</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19493,11 +19895,17 @@
         <v>832816.7273134449</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>39</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19526,11 +19934,17 @@
         <v>841372.222513445</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>39</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19562,8 +19976,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>39</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19595,8 +20015,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>39</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19628,8 +20054,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>39</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19661,8 +20093,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>39</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19694,8 +20132,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>39</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19727,8 +20171,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>39</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19760,8 +20210,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>39</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19790,11 +20246,17 @@
         <v>1092867.935545749</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>39</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19823,11 +20285,17 @@
         <v>961349.8027457495</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>39</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19856,15 +20324,23 @@
         <v>942607.0987457494</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>39</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L533" t="n">
-        <v>1</v>
-      </c>
-      <c r="M533" t="inlineStr"/>
+        <v>1.089871794871795</v>
+      </c>
+      <c r="M533" t="n">
+        <v>1.089974293059126</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -19889,7 +20365,7 @@
         <v>942607.0987457494</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19922,7 +20398,7 @@
         <v>940217.6321457494</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19955,7 +20431,7 @@
         <v>841955.2486457494</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19988,7 +20464,7 @@
         <v>841955.2486457494</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20021,7 +20497,7 @@
         <v>841955.2486457494</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20054,7 +20530,7 @@
         <v>841955.2486457494</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20087,7 +20563,7 @@
         <v>709765.7601457494</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20120,7 +20596,7 @@
         <v>772712.7601457494</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20153,7 +20629,7 @@
         <v>816008.7366163377</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20186,7 +20662,7 @@
         <v>768859.6302163376</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20219,7 +20695,7 @@
         <v>1271190.248416338</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20252,7 +20728,7 @@
         <v>1390438.111616338</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20285,7 +20761,7 @@
         <v>1388051.576616338</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20318,7 +20794,7 @@
         <v>1388051.576616338</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20351,7 +20827,7 @@
         <v>1317561.230016338</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20417,7 +20893,7 @@
         <v>1383203.854216338</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20450,7 +20926,7 @@
         <v>1345661.383128102</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20483,7 +20959,7 @@
         <v>1414596.137428102</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20516,7 +20992,7 @@
         <v>1414596.137428102</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20549,7 +21025,7 @@
         <v>1395808.332728102</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20582,7 +21058,7 @@
         <v>1395808.332728102</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20615,7 +21091,7 @@
         <v>1371780.722028102</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20648,7 +21124,7 @@
         <v>1157441.807828102</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20681,7 +21157,7 @@
         <v>1171032.580128102</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20714,7 +21190,7 @@
         <v>1171501.846228102</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20747,7 +21223,7 @@
         <v>1171501.846228102</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20780,7 +21256,7 @@
         <v>1110335.705828102</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20813,7 +21289,7 @@
         <v>1137932.141928102</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20846,7 +21322,7 @@
         <v>1155634.670228102</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20879,7 +21355,7 @@
         <v>1155634.670228102</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20912,7 +21388,7 @@
         <v>1244506.373128102</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20945,7 +21421,7 @@
         <v>1244110.373128102</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20978,7 +21454,7 @@
         <v>1206966.782928102</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21011,7 +21487,7 @@
         <v>1206916.782928102</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21044,7 +21520,7 @@
         <v>1160472.533128102</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21077,7 +21553,7 @@
         <v>1266332.669928102</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21110,7 +21586,7 @@
         <v>1262287.337928102</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21143,7 +21619,7 @@
         <v>1157303.229028102</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21176,7 +21652,7 @@
         <v>1157313.229028102</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21209,7 +21685,7 @@
         <v>1156482.856228102</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21242,7 +21718,7 @@
         <v>1156482.856228102</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21275,7 +21751,7 @@
         <v>1156482.856228102</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21308,7 +21784,7 @@
         <v>1156482.856228102</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21341,7 +21817,7 @@
         <v>1204654.662028102</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21374,7 +21850,7 @@
         <v>1225816.846028102</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21407,7 +21883,7 @@
         <v>1225816.846028102</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21440,7 +21916,7 @@
         <v>1306224.763328102</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21473,7 +21949,7 @@
         <v>1344951.452128102</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21506,7 +21982,7 @@
         <v>1341135.114928102</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21539,7 +22015,7 @@
         <v>1354721.284328102</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21572,7 +22048,7 @@
         <v>1400216.949028102</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21605,7 +22081,7 @@
         <v>1423328.734928102</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21671,7 +22147,7 @@
         <v>1308753.725009899</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21737,7 +22213,7 @@
         <v>1308753.725009899</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21770,7 +22246,7 @@
         <v>1311818.685109899</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21803,7 +22279,7 @@
         <v>1311829.685109899</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21836,7 +22312,7 @@
         <v>1303843.578409899</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21869,7 +22345,7 @@
         <v>1303843.578409899</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21902,7 +22378,7 @@
         <v>1303853.578409899</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21935,7 +22411,7 @@
         <v>1300902.981809899</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21968,7 +22444,7 @@
         <v>1300913.081809899</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22001,7 +22477,7 @@
         <v>1296913.081809899</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22034,7 +22510,7 @@
         <v>1319160.322409899</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22067,7 +22543,7 @@
         <v>1360500.517209899</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22100,7 +22576,7 @@
         <v>1443292.457109899</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22133,7 +22609,7 @@
         <v>1443292.457109899</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22166,7 +22642,7 @@
         <v>1442648.494909899</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22199,7 +22675,7 @@
         <v>1442792.494909899</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22232,7 +22708,7 @@
         <v>1442792.494909899</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22265,7 +22741,7 @@
         <v>1351532.214009899</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22298,7 +22774,7 @@
         <v>1343695.805509899</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22331,7 +22807,7 @@
         <v>1327849.270109899</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22364,7 +22840,7 @@
         <v>1329464.091209899</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22397,7 +22873,7 @@
         <v>1329464.091209899</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22430,7 +22906,7 @@
         <v>1329464.091209899</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22463,7 +22939,7 @@
         <v>1343629.550909899</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22496,7 +22972,7 @@
         <v>1343016.535509899</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22529,7 +23005,7 @@
         <v>1343016.535509899</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22562,7 +23038,7 @@
         <v>1353970.695909899</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22595,7 +23071,7 @@
         <v>1342999.316009899</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22628,7 +23104,7 @@
         <v>1344040.381909899</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22661,7 +23137,7 @@
         <v>1348916.281509899</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22694,7 +23170,7 @@
         <v>1348193.338609899</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22727,7 +23203,7 @@
         <v>1348193.338609899</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22760,7 +23236,7 @@
         <v>1347166.603809899</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22793,7 +23269,7 @@
         <v>1334952.630109899</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22826,7 +23302,7 @@
         <v>1334952.630109899</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22859,7 +23335,7 @@
         <v>1334952.630109899</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22892,7 +23368,7 @@
         <v>1334952.630109899</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22925,7 +23401,7 @@
         <v>1334952.630109899</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22958,7 +23434,7 @@
         <v>1308871.165709899</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22991,7 +23467,7 @@
         <v>1297508.193409899</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23024,7 +23500,7 @@
         <v>1301518.193409899</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23057,7 +23533,7 @@
         <v>1300248.783909899</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23090,7 +23566,7 @@
         <v>1299037.224609899</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23123,7 +23599,7 @@
         <v>1299037.224609899</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23156,7 +23632,7 @@
         <v>1299074.156409899</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23189,7 +23665,7 @@
         <v>1299074.156409899</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23222,7 +23698,7 @@
         <v>1341412.356809899</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23255,7 +23731,7 @@
         <v>1341412.356809899</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23288,7 +23764,7 @@
         <v>1385425.048809899</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23321,7 +23797,7 @@
         <v>1385425.048809899</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23497,6 +23973,6 @@
       <c r="M643" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest LAMB.xlsx
+++ b/BackTest/2019-10-29 BackTest LAMB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -931,9 +931,11 @@
         <v>356218.8308051283</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>39.7</v>
+      </c>
       <c r="J14" t="n">
         <v>39.2</v>
       </c>
@@ -2495,7 +2497,7 @@
         <v>813269.2608474456</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
@@ -2503,11 +2505,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>1.015408163265306</v>
       </c>
       <c r="M54" t="inlineStr"/>
     </row>
@@ -2537,14 +2539,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2573,17 +2569,11 @@
         <v>835780.6074474456</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2612,17 +2602,11 @@
         <v>835780.6074474456</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2651,17 +2635,11 @@
         <v>846680.4169474456</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2690,17 +2668,11 @@
         <v>857453.4960474456</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2729,17 +2701,11 @@
         <v>870286.4541474456</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2771,14 +2737,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2807,17 +2767,11 @@
         <v>822172.4496474456</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2849,14 +2803,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2888,14 +2836,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2927,14 +2869,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2966,14 +2902,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3005,14 +2935,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3044,14 +2968,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3083,14 +3001,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3119,17 +3031,11 @@
         <v>1308284.263866332</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3158,17 +3064,11 @@
         <v>1031298.977666332</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3197,17 +3097,11 @@
         <v>1031298.977666332</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3239,14 +3133,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3278,14 +3166,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3317,14 +3199,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3356,14 +3232,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3395,14 +3265,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3434,14 +3298,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3473,14 +3331,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3512,14 +3364,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3551,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3590,14 +3430,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3629,14 +3463,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3668,14 +3496,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3707,14 +3529,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3746,14 +3562,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3785,14 +3595,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3824,14 +3628,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3863,14 +3661,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3902,14 +3694,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3941,14 +3727,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3980,14 +3760,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4019,14 +3793,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4058,14 +3826,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4097,14 +3859,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4136,14 +3892,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4175,14 +3925,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4214,14 +3958,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4253,14 +3991,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4292,14 +4024,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4331,14 +4057,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4370,14 +4090,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4409,14 +4123,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4448,14 +4156,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4487,14 +4189,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4526,14 +4222,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4565,14 +4255,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4604,14 +4288,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4643,14 +4321,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4682,14 +4354,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4721,14 +4387,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4760,14 +4420,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4799,14 +4453,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4838,14 +4486,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4877,14 +4519,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4916,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4955,14 +4585,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4994,14 +4618,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5033,14 +4651,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5072,14 +4684,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5111,14 +4717,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5150,14 +4750,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5189,14 +4783,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5228,14 +4816,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5267,14 +4849,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5306,14 +4882,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5345,14 +4915,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5384,14 +4948,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5423,14 +4981,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5462,14 +5014,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5501,14 +5047,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5540,14 +5080,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5579,14 +5113,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5618,14 +5146,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5657,14 +5179,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5696,14 +5212,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5735,14 +5245,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5774,14 +5278,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5813,14 +5311,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5852,14 +5344,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5891,14 +5377,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5930,14 +5410,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5969,14 +5443,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6008,14 +5476,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6047,14 +5509,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6083,19 +5539,11 @@
         <v>210055.559366332</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="J146" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6124,19 +5572,11 @@
         <v>208389.183066332</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="J147" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6171,13 +5611,9 @@
         <v>39.6</v>
       </c>
       <c r="J148" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>39.6</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6210,11 +5646,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>39.2</v>
+        <v>39.6</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L149" t="n">
@@ -6249,11 +5685,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>39.2</v>
+        <v>39.6</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -6287,14 +5723,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6326,14 +5756,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6362,19 +5786,11 @@
         <v>211221.156135332</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="J153" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6406,14 +5822,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6442,19 +5852,11 @@
         <v>210460.442535332</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="J155" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6483,19 +5885,11 @@
         <v>170460.442535332</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="J156" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6524,19 +5918,11 @@
         <v>171460.442535332</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="J157" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6565,19 +5951,11 @@
         <v>345469.948535332</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="J158" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6606,19 +5984,11 @@
         <v>345469.948535332</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>40</v>
-      </c>
-      <c r="J159" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6647,19 +6017,11 @@
         <v>345469.948535332</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>40</v>
-      </c>
-      <c r="J160" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6691,14 +6053,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6730,14 +6086,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6769,14 +6119,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6808,14 +6152,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6844,17 +6182,11 @@
         <v>512579.434566332</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6883,17 +6215,11 @@
         <v>1016283.119666332</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6922,17 +6248,11 @@
         <v>701940.2275663321</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6961,17 +6281,11 @@
         <v>701940.2275663321</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7000,17 +6314,11 @@
         <v>701940.2275663321</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7039,17 +6347,11 @@
         <v>757008.9938663321</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7078,17 +6380,11 @@
         <v>719783.9525663321</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7117,17 +6413,11 @@
         <v>719783.9525663321</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7156,17 +6446,11 @@
         <v>719783.9525663321</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7195,17 +6479,11 @@
         <v>820611.4174663321</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7234,17 +6512,11 @@
         <v>778397.0215663321</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7273,17 +6545,11 @@
         <v>909001.8224663321</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7312,17 +6578,11 @@
         <v>909001.8224663321</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7354,14 +6614,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7393,14 +6647,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7432,14 +6680,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7468,17 +6710,11 @@
         <v>898703.7517663321</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7510,14 +6746,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7549,14 +6779,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7588,14 +6812,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7627,14 +6845,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7663,17 +6875,11 @@
         <v>889488.6686663321</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7702,17 +6908,11 @@
         <v>883424.1613663321</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7741,17 +6941,11 @@
         <v>873414.0513663321</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7780,17 +6974,11 @@
         <v>885914.0629663321</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7819,17 +7007,11 @@
         <v>884634.349866332</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7858,17 +7040,11 @@
         <v>884634.349866332</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7897,17 +7073,11 @@
         <v>890605.280266332</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7936,17 +7106,11 @@
         <v>890605.280266332</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7975,17 +7139,11 @@
         <v>890615.380266332</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8014,17 +7172,11 @@
         <v>867215.380266332</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8053,17 +7205,11 @@
         <v>867215.380266332</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8092,17 +7238,11 @@
         <v>867215.380266332</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8131,17 +7271,11 @@
         <v>867215.380266332</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8170,17 +7304,11 @@
         <v>867215.380266332</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8209,17 +7337,11 @@
         <v>867215.380266332</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8248,17 +7370,11 @@
         <v>983140.3661663319</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8287,17 +7403,11 @@
         <v>989722.3384663319</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8329,14 +7439,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8368,14 +7472,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8407,14 +7505,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8443,17 +7535,11 @@
         <v>968696.841266332</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8482,17 +7568,11 @@
         <v>971696.841266332</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8521,17 +7601,11 @@
         <v>1024319.292166332</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8563,14 +7637,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8602,14 +7670,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8641,14 +7703,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8680,14 +7736,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8719,14 +7769,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8758,14 +7802,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8797,14 +7835,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8836,14 +7868,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8875,14 +7901,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8914,14 +7934,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8953,14 +7967,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8992,14 +8000,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9031,14 +8033,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9070,14 +8066,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9109,14 +8099,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9148,14 +8132,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9187,14 +8165,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9226,14 +8198,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9265,14 +8231,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9301,19 +8261,13 @@
         <v>1368055.137247129</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
-        <v>1.030714285714286</v>
+        <v>1</v>
       </c>
       <c r="M228" t="inlineStr"/>
     </row>
@@ -9637,7 +8591,7 @@
         <v>1084912.341347129</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -15839,7 +14793,7 @@
         <v>688716.7075134448</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
@@ -15847,11 +14801,11 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L418" t="n">
-        <v>1</v>
+        <v>1.023205128205128</v>
       </c>
       <c r="M418" t="inlineStr"/>
     </row>
@@ -15878,17 +14832,11 @@
         <v>686908.7075134448</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>39</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15917,17 +14865,11 @@
         <v>686908.7075134448</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>39</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15956,17 +14898,11 @@
         <v>686908.7075134448</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>39</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15995,17 +14931,11 @@
         <v>686908.7075134448</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>39</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16034,17 +14964,11 @@
         <v>694263.7075134448</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>39</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16076,14 +15000,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>39</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16112,17 +15030,11 @@
         <v>617169.6269134448</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>39</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16154,14 +15066,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>39</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16193,14 +15099,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>39</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16232,14 +15132,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>39</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16271,14 +15165,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>39</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16310,14 +15198,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>39</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16349,14 +15231,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>39</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16388,14 +15264,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>39</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16427,14 +15297,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>39</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16466,14 +15330,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>39</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16505,14 +15363,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>39</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16544,14 +15396,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>39</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16583,14 +15429,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>39</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16622,14 +15462,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>39</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16661,14 +15495,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>39</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16700,14 +15528,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>39</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16739,14 +15561,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>39</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16778,14 +15594,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>39</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16817,14 +15627,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>39</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16856,14 +15660,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>39</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16895,14 +15693,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>39</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16934,14 +15726,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>39</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16973,14 +15759,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>39</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17012,14 +15792,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>39</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17051,14 +15825,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>39</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17090,14 +15858,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>39</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17129,14 +15891,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>39</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17168,14 +15924,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>39</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17207,14 +15957,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>39</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17246,14 +15990,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>39</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17285,14 +16023,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>39</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17324,14 +16056,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>39</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17363,14 +16089,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>39</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17402,14 +16122,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>39</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17441,14 +16155,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>39</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17480,14 +16188,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>39</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17519,14 +16221,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>39</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17558,14 +16254,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>39</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17594,17 +16284,11 @@
         <v>558616.8285134449</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>39</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17633,17 +16317,11 @@
         <v>581121.3285134449</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>39</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17672,17 +16350,11 @@
         <v>623812.8520134449</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>39</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17711,17 +16383,11 @@
         <v>623812.8520134449</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>39</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17750,17 +16416,11 @@
         <v>623812.8520134449</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>39</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17789,17 +16449,11 @@
         <v>688183.6804134449</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>39</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17828,17 +16482,11 @@
         <v>688183.6804134449</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>39</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17867,17 +16515,11 @@
         <v>726488.9954134449</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>39</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17906,17 +16548,11 @@
         <v>699482.5664134449</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>39</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17945,17 +16581,11 @@
         <v>690516.3740134449</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>39</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17987,14 +16617,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>39</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18026,14 +16650,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>39</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18065,14 +16683,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>39</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18104,14 +16716,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>39</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18143,14 +16749,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>39</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18182,14 +16782,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>39</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18221,14 +16815,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>39</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18260,14 +16848,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>39</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18299,14 +16881,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>39</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18338,14 +16914,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>39</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18377,14 +16947,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>39</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18416,14 +16980,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>39</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18455,14 +17013,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>39</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18494,14 +17046,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>39</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18533,14 +17079,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>39</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18572,14 +17112,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>39</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18611,14 +17145,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>39</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18650,14 +17178,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>39</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18689,14 +17211,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>39</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18728,14 +17244,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>39</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18767,14 +17277,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>39</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18806,14 +17310,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>39</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18845,14 +17343,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>39</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18884,14 +17376,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>39</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18923,14 +17409,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>39</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18962,14 +17442,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>39</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19001,14 +17475,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>39</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19037,17 +17505,11 @@
         <v>422852.5243134449</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>39</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19079,14 +17541,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>39</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19118,14 +17574,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>39</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19157,14 +17607,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>39</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19196,14 +17640,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>39</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19235,14 +17673,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>39</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19274,14 +17706,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>39</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19313,14 +17739,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>39</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19352,14 +17772,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>39</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19391,14 +17805,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>39</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19430,14 +17838,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>39</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19469,14 +17871,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>39</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19508,14 +17904,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>39</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19547,14 +17937,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>39</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19586,14 +17970,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>39</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19625,14 +18003,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>39</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19664,14 +18036,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>39</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19703,14 +18069,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>39</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19742,14 +18102,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>39</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19781,14 +18135,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>39</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19820,14 +18168,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>39</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19859,14 +18201,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>39</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19898,14 +18234,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>39</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19937,14 +18267,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>39</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19976,14 +18300,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>39</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20015,14 +18333,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>39</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20054,14 +18366,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>39</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20093,14 +18399,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>39</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20132,14 +18432,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>39</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20171,14 +18465,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>39</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20210,14 +18498,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>39</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20249,14 +18531,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>39</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20288,14 +18564,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>39</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20324,23 +18594,15 @@
         <v>942607.0987457494</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>39</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
-        <v>1.089871794871795</v>
-      </c>
-      <c r="M533" t="n">
-        <v>1.089974293059126</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -20365,7 +18627,7 @@
         <v>942607.0987457494</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20398,7 +18660,7 @@
         <v>940217.6321457494</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20431,7 +18693,7 @@
         <v>841955.2486457494</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20464,7 +18726,7 @@
         <v>841955.2486457494</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20497,7 +18759,7 @@
         <v>841955.2486457494</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20530,7 +18792,7 @@
         <v>841955.2486457494</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20563,7 +18825,7 @@
         <v>709765.7601457494</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20596,7 +18858,7 @@
         <v>772712.7601457494</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20629,7 +18891,7 @@
         <v>816008.7366163377</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20662,7 +18924,7 @@
         <v>768859.6302163376</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20695,7 +18957,7 @@
         <v>1271190.248416338</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20728,7 +18990,7 @@
         <v>1390438.111616338</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20761,7 +19023,7 @@
         <v>1388051.576616338</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20794,7 +19056,7 @@
         <v>1388051.576616338</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20827,7 +19089,7 @@
         <v>1317561.230016338</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20893,7 +19155,7 @@
         <v>1383203.854216338</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20926,7 +19188,7 @@
         <v>1345661.383128102</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20959,7 +19221,7 @@
         <v>1414596.137428102</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20992,7 +19254,7 @@
         <v>1414596.137428102</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21025,7 +19287,7 @@
         <v>1395808.332728102</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21058,7 +19320,7 @@
         <v>1395808.332728102</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21091,7 +19353,7 @@
         <v>1371780.722028102</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21124,7 +19386,7 @@
         <v>1157441.807828102</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21157,7 +19419,7 @@
         <v>1171032.580128102</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21190,7 +19452,7 @@
         <v>1171501.846228102</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21223,7 +19485,7 @@
         <v>1171501.846228102</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21256,7 +19518,7 @@
         <v>1110335.705828102</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21289,7 +19551,7 @@
         <v>1137932.141928102</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21322,7 +19584,7 @@
         <v>1155634.670228102</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21355,7 +19617,7 @@
         <v>1155634.670228102</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21388,7 +19650,7 @@
         <v>1244506.373128102</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21421,7 +19683,7 @@
         <v>1244110.373128102</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21454,7 +19716,7 @@
         <v>1206966.782928102</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21487,7 +19749,7 @@
         <v>1206916.782928102</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21520,7 +19782,7 @@
         <v>1160472.533128102</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21553,7 +19815,7 @@
         <v>1266332.669928102</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21586,7 +19848,7 @@
         <v>1262287.337928102</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21619,7 +19881,7 @@
         <v>1157303.229028102</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21652,7 +19914,7 @@
         <v>1157313.229028102</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21685,7 +19947,7 @@
         <v>1156482.856228102</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21718,7 +19980,7 @@
         <v>1156482.856228102</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21751,7 +20013,7 @@
         <v>1156482.856228102</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21784,7 +20046,7 @@
         <v>1156482.856228102</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21817,7 +20079,7 @@
         <v>1204654.662028102</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21850,7 +20112,7 @@
         <v>1225816.846028102</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21883,7 +20145,7 @@
         <v>1225816.846028102</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21916,7 +20178,7 @@
         <v>1306224.763328102</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21949,7 +20211,7 @@
         <v>1344951.452128102</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21982,7 +20244,7 @@
         <v>1341135.114928102</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -22015,7 +20277,7 @@
         <v>1354721.284328102</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -22048,7 +20310,7 @@
         <v>1400216.949028102</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -22081,7 +20343,7 @@
         <v>1423328.734928102</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -22147,7 +20409,7 @@
         <v>1308753.725009899</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22213,7 +20475,7 @@
         <v>1308753.725009899</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22246,7 +20508,7 @@
         <v>1311818.685109899</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22279,7 +20541,7 @@
         <v>1311829.685109899</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22312,7 +20574,7 @@
         <v>1303843.578409899</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22345,7 +20607,7 @@
         <v>1303843.578409899</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22378,7 +20640,7 @@
         <v>1303853.578409899</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22411,7 +20673,7 @@
         <v>1300902.981809899</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22444,7 +20706,7 @@
         <v>1300913.081809899</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22477,7 +20739,7 @@
         <v>1296913.081809899</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22510,7 +20772,7 @@
         <v>1319160.322409899</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22543,7 +20805,7 @@
         <v>1360500.517209899</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22576,7 +20838,7 @@
         <v>1443292.457109899</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22609,7 +20871,7 @@
         <v>1443292.457109899</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22642,7 +20904,7 @@
         <v>1442648.494909899</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22675,7 +20937,7 @@
         <v>1442792.494909899</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22708,7 +20970,7 @@
         <v>1442792.494909899</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22741,7 +21003,7 @@
         <v>1351532.214009899</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22774,7 +21036,7 @@
         <v>1343695.805509899</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22807,7 +21069,7 @@
         <v>1327849.270109899</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22840,7 +21102,7 @@
         <v>1329464.091209899</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22873,7 +21135,7 @@
         <v>1329464.091209899</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22906,7 +21168,7 @@
         <v>1329464.091209899</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22939,7 +21201,7 @@
         <v>1343629.550909899</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22972,7 +21234,7 @@
         <v>1343016.535509899</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -23005,7 +21267,7 @@
         <v>1343016.535509899</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -23038,7 +21300,7 @@
         <v>1353970.695909899</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23071,7 +21333,7 @@
         <v>1342999.316009899</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -23104,7 +21366,7 @@
         <v>1344040.381909899</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23137,7 +21399,7 @@
         <v>1348916.281509899</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -23170,7 +21432,7 @@
         <v>1348193.338609899</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23203,7 +21465,7 @@
         <v>1348193.338609899</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23236,7 +21498,7 @@
         <v>1347166.603809899</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23269,7 +21531,7 @@
         <v>1334952.630109899</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23302,7 +21564,7 @@
         <v>1334952.630109899</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23335,7 +21597,7 @@
         <v>1334952.630109899</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23368,7 +21630,7 @@
         <v>1334952.630109899</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23401,7 +21663,7 @@
         <v>1334952.630109899</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23434,7 +21696,7 @@
         <v>1308871.165709899</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23467,7 +21729,7 @@
         <v>1297508.193409899</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23500,7 +21762,7 @@
         <v>1301518.193409899</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23533,7 +21795,7 @@
         <v>1300248.783909899</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23566,7 +21828,7 @@
         <v>1299037.224609899</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23599,7 +21861,7 @@
         <v>1299037.224609899</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23632,7 +21894,7 @@
         <v>1299074.156409899</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23665,7 +21927,7 @@
         <v>1299074.156409899</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23698,7 +21960,7 @@
         <v>1341412.356809899</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23731,7 +21993,7 @@
         <v>1341412.356809899</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23797,7 +22059,7 @@
         <v>1385425.048809899</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23973,6 +22235,6 @@
       <c r="M643" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>